--- a/Otorgamiento/Mapeos_UBI_Otorgamiento_V1.xlsx
+++ b/Otorgamiento/Mapeos_UBI_Otorgamiento_V1.xlsx
@@ -4596,8 +4596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView topLeftCell="H62" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView topLeftCell="K47" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O58" sqref="O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6300,7 +6300,7 @@
         <v>247</v>
       </c>
       <c r="R58" s="160" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S58" s="177"/>
     </row>
@@ -6785,8 +6785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S35"/>
   <sheetViews>
-    <sheetView topLeftCell="G17" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20:K20"/>
+    <sheetView topLeftCell="L17" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7657,7 +7657,7 @@
         <v>247</v>
       </c>
       <c r="R25" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S25" s="74"/>
     </row>
@@ -7877,8 +7877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="K9" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8801,7 +8801,7 @@
         <v>247</v>
       </c>
       <c r="R25" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S25" s="74"/>
     </row>
@@ -9033,8 +9033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S64"/>
   <sheetViews>
-    <sheetView topLeftCell="F46" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView topLeftCell="L46" workbookViewId="0">
+      <selection activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10614,7 +10614,7 @@
         <v>247</v>
       </c>
       <c r="R47" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S47" s="57"/>
     </row>
@@ -10983,8 +10983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S68"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16:K16"/>
+    <sheetView topLeftCell="L37" workbookViewId="0">
+      <selection activeCell="R47" sqref="R47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12507,7 +12507,7 @@
         <v>247</v>
       </c>
       <c r="R47" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S47" s="57"/>
     </row>
@@ -12952,8 +12952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S68"/>
   <sheetViews>
-    <sheetView topLeftCell="K52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N74" sqref="N74"/>
+    <sheetView topLeftCell="K36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14505,7 +14505,7 @@
         <v>247</v>
       </c>
       <c r="R47" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S47" s="57"/>
     </row>
@@ -16320,8 +16320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S36"/>
   <sheetViews>
-    <sheetView topLeftCell="J4" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19:K19"/>
+    <sheetView topLeftCell="K15" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17199,7 +17199,7 @@
         <v>247</v>
       </c>
       <c r="R25" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S25" s="57"/>
     </row>
@@ -17431,8 +17431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S34"/>
   <sheetViews>
-    <sheetView topLeftCell="H10" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19:K19"/>
+    <sheetView topLeftCell="L15" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18285,7 +18285,7 @@
         <v>247</v>
       </c>
       <c r="R25" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S25" s="57"/>
     </row>
@@ -18505,8 +18505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S39"/>
   <sheetViews>
-    <sheetView topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="L10" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19426,7 +19426,7 @@
         <v>247</v>
       </c>
       <c r="R25" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S25" s="74"/>
     </row>
@@ -19661,8 +19661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S37"/>
   <sheetViews>
-    <sheetView topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20:K20"/>
+    <sheetView topLeftCell="I13" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20559,7 +20559,7 @@
         <v>247</v>
       </c>
       <c r="R25" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S25" s="74"/>
     </row>

--- a/Otorgamiento/Mapeos_UBI_Otorgamiento_V1.xlsx
+++ b/Otorgamiento/Mapeos_UBI_Otorgamiento_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="20115" windowHeight="7815" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="20115" windowHeight="7815" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="DB_COMPL_PERSONA_NATURAL" sheetId="1" r:id="rId1"/>
@@ -1982,7 +1982,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2836" uniqueCount="398">
   <si>
     <t>Nombre de la fuente</t>
   </si>
@@ -4596,8 +4596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView topLeftCell="K47" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O58" sqref="O58"/>
+    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5157,7 +5157,7 @@
         <v>114</v>
       </c>
       <c r="Q16" s="160" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="R16" s="160" t="s">
         <v>81</v>
@@ -5623,7 +5623,7 @@
         <v>114</v>
       </c>
       <c r="Q27" s="160" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="R27" s="160" t="s">
         <v>81</v>
@@ -5890,7 +5890,7 @@
         <v>114</v>
       </c>
       <c r="Q38" s="160" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="R38" s="160" t="s">
         <v>81</v>
@@ -6117,7 +6117,7 @@
         <v>114</v>
       </c>
       <c r="Q49" s="160" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="R49" s="160" t="s">
         <v>81</v>
@@ -6319,8 +6319,8 @@
       <c r="Q59" s="160" t="s">
         <v>249</v>
       </c>
-      <c r="R59" s="160" t="s">
-        <v>78</v>
+      <c r="R59" s="56" t="s">
+        <v>81</v>
       </c>
       <c r="S59" s="177"/>
     </row>
@@ -6359,8 +6359,8 @@
       <c r="Q61" s="160" t="s">
         <v>253</v>
       </c>
-      <c r="R61" s="160" t="s">
-        <v>78</v>
+      <c r="R61" s="56" t="s">
+        <v>81</v>
       </c>
       <c r="S61" s="177"/>
     </row>
@@ -6379,8 +6379,8 @@
       <c r="Q62" s="160" t="s">
         <v>255</v>
       </c>
-      <c r="R62" s="160" t="s">
-        <v>78</v>
+      <c r="R62" s="56" t="s">
+        <v>81</v>
       </c>
       <c r="S62" s="177"/>
     </row>
@@ -6399,8 +6399,8 @@
       <c r="Q63" s="160" t="s">
         <v>86</v>
       </c>
-      <c r="R63" s="160" t="s">
-        <v>78</v>
+      <c r="R63" s="56" t="s">
+        <v>81</v>
       </c>
       <c r="S63" s="177"/>
     </row>
@@ -6419,8 +6419,8 @@
       <c r="Q64" s="160" t="s">
         <v>253</v>
       </c>
-      <c r="R64" s="160" t="s">
-        <v>78</v>
+      <c r="R64" s="56" t="s">
+        <v>81</v>
       </c>
       <c r="S64" s="186"/>
     </row>
@@ -6439,8 +6439,8 @@
       <c r="Q65" s="160" t="s">
         <v>247</v>
       </c>
-      <c r="R65" s="160" t="s">
-        <v>78</v>
+      <c r="R65" s="56" t="s">
+        <v>81</v>
       </c>
       <c r="S65" s="186"/>
     </row>
@@ -6459,8 +6459,8 @@
       <c r="Q66" s="160" t="s">
         <v>253</v>
       </c>
-      <c r="R66" s="160" t="s">
-        <v>78</v>
+      <c r="R66" s="56" t="s">
+        <v>81</v>
       </c>
       <c r="S66" s="186"/>
     </row>
@@ -6559,8 +6559,8 @@
       <c r="Q71" s="160" t="s">
         <v>318</v>
       </c>
-      <c r="R71" s="160" t="s">
-        <v>78</v>
+      <c r="R71" s="56" t="s">
+        <v>81</v>
       </c>
       <c r="S71" s="186"/>
     </row>
@@ -6679,8 +6679,8 @@
       <c r="Q77" s="160" t="s">
         <v>318</v>
       </c>
-      <c r="R77" s="160" t="s">
-        <v>78</v>
+      <c r="R77" s="56" t="s">
+        <v>81</v>
       </c>
       <c r="S77" s="186"/>
     </row>
@@ -6785,8 +6785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S35"/>
   <sheetViews>
-    <sheetView topLeftCell="L17" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7073,7 +7073,9 @@
       </c>
       <c r="E10" s="72"/>
       <c r="F10" s="84"/>
-      <c r="G10" s="85"/>
+      <c r="G10" s="85" t="s">
+        <v>22</v>
+      </c>
       <c r="H10" s="144"/>
       <c r="I10" s="55">
         <v>15</v>
@@ -7352,7 +7354,7 @@
         <v>114</v>
       </c>
       <c r="Q16" s="56" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="R16" s="56" t="s">
         <v>81</v>
@@ -7681,7 +7683,7 @@
         <v>249</v>
       </c>
       <c r="R26" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S26" s="74"/>
     </row>
@@ -7723,7 +7725,7 @@
         <v>253</v>
       </c>
       <c r="R28" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S28" s="74"/>
     </row>
@@ -7744,7 +7746,7 @@
         <v>255</v>
       </c>
       <c r="R29" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S29" s="74"/>
     </row>
@@ -7765,7 +7767,7 @@
         <v>86</v>
       </c>
       <c r="R30" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S30" s="74"/>
     </row>
@@ -7786,7 +7788,7 @@
         <v>253</v>
       </c>
       <c r="R31" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S31" s="74"/>
     </row>
@@ -7807,7 +7809,7 @@
         <v>247</v>
       </c>
       <c r="R32" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S32" s="74"/>
     </row>
@@ -7828,7 +7830,7 @@
         <v>253</v>
       </c>
       <c r="R33" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S33" s="74"/>
     </row>
@@ -7877,8 +7879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K9" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8165,7 +8167,9 @@
       </c>
       <c r="E10" s="72"/>
       <c r="F10" s="84"/>
-      <c r="G10" s="85"/>
+      <c r="G10" s="85" t="s">
+        <v>22</v>
+      </c>
       <c r="H10" s="145"/>
       <c r="I10" s="55">
         <v>19</v>
@@ -8442,7 +8446,7 @@
         <v>114</v>
       </c>
       <c r="Q16" s="56" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="R16" s="56" t="s">
         <v>81</v>
@@ -8825,7 +8829,7 @@
         <v>249</v>
       </c>
       <c r="R26" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S26" s="74"/>
     </row>
@@ -8867,7 +8871,7 @@
         <v>253</v>
       </c>
       <c r="R28" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S28" s="74"/>
     </row>
@@ -8888,7 +8892,7 @@
         <v>255</v>
       </c>
       <c r="R29" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S29" s="74"/>
     </row>
@@ -8909,7 +8913,7 @@
         <v>86</v>
       </c>
       <c r="R30" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S30" s="74"/>
     </row>
@@ -8930,7 +8934,7 @@
         <v>253</v>
       </c>
       <c r="R31" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S31" s="74"/>
     </row>
@@ -8951,7 +8955,7 @@
         <v>247</v>
       </c>
       <c r="R32" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S32" s="74"/>
     </row>
@@ -8972,7 +8976,7 @@
         <v>253</v>
       </c>
       <c r="R33" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S33" s="74"/>
     </row>
@@ -9033,8 +9037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S64"/>
   <sheetViews>
-    <sheetView topLeftCell="L46" workbookViewId="0">
-      <selection activeCell="P52" sqref="P52"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9055,7 +9059,7 @@
     <col min="14" max="14" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.7109375" customWidth="1"/>
     <col min="16" max="16" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9283,7 +9287,9 @@
       </c>
       <c r="E9" s="73"/>
       <c r="F9" s="28"/>
-      <c r="G9" s="66"/>
+      <c r="G9" s="66" t="s">
+        <v>22</v>
+      </c>
       <c r="H9" s="116"/>
       <c r="I9" s="97">
         <v>30</v>
@@ -9602,7 +9608,7 @@
         <v>114</v>
       </c>
       <c r="Q16" s="56" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="R16" s="56" t="s">
         <v>81</v>
@@ -10050,7 +10056,7 @@
         <v>114</v>
       </c>
       <c r="Q27" s="56" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="R27" s="56" t="s">
         <v>81</v>
@@ -10422,7 +10428,7 @@
         <v>114</v>
       </c>
       <c r="Q38" s="56" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="R38" s="56" t="s">
         <v>81</v>
@@ -10635,7 +10641,7 @@
         <v>249</v>
       </c>
       <c r="R48" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S48" s="57"/>
     </row>
@@ -10677,7 +10683,7 @@
         <v>253</v>
       </c>
       <c r="R50" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S50" s="57"/>
     </row>
@@ -10698,7 +10704,7 @@
         <v>255</v>
       </c>
       <c r="R51" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S51" s="57"/>
     </row>
@@ -10718,7 +10724,7 @@
         <v>86</v>
       </c>
       <c r="R52" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S52" s="57"/>
     </row>
@@ -10738,7 +10744,7 @@
         <v>253</v>
       </c>
       <c r="R53" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S53" s="74"/>
     </row>
@@ -10758,7 +10764,7 @@
         <v>247</v>
       </c>
       <c r="R54" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S54" s="74"/>
     </row>
@@ -10778,7 +10784,7 @@
         <v>253</v>
       </c>
       <c r="R55" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S55" s="74"/>
     </row>
@@ -10878,7 +10884,7 @@
         <v>318</v>
       </c>
       <c r="R60" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S60" s="74"/>
     </row>
@@ -10983,8 +10989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S68"/>
   <sheetViews>
-    <sheetView topLeftCell="L37" workbookViewId="0">
-      <selection activeCell="R47" sqref="R47"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11229,7 +11235,9 @@
       </c>
       <c r="E9" s="73"/>
       <c r="F9" s="28"/>
-      <c r="G9" s="66"/>
+      <c r="G9" s="66" t="s">
+        <v>22</v>
+      </c>
       <c r="H9" s="116"/>
       <c r="I9" s="97">
         <v>26</v>
@@ -11552,7 +11560,7 @@
         <v>114</v>
       </c>
       <c r="Q16" s="56" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="R16" s="56" t="s">
         <v>81</v>
@@ -12000,7 +12008,7 @@
         <v>114</v>
       </c>
       <c r="Q27" s="56" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="R27" s="56" t="s">
         <v>81</v>
@@ -12315,7 +12323,7 @@
         <v>114</v>
       </c>
       <c r="Q38" s="56" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="R38" s="56" t="s">
         <v>81</v>
@@ -12527,7 +12535,7 @@
         <v>249</v>
       </c>
       <c r="R48" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S48" s="57"/>
     </row>
@@ -12567,7 +12575,7 @@
         <v>253</v>
       </c>
       <c r="R50" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S50" s="74"/>
     </row>
@@ -12587,7 +12595,7 @@
         <v>255</v>
       </c>
       <c r="R51" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S51" s="74"/>
     </row>
@@ -12607,7 +12615,7 @@
         <v>86</v>
       </c>
       <c r="R52" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S52" s="74"/>
     </row>
@@ -12627,7 +12635,7 @@
         <v>253</v>
       </c>
       <c r="R53" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S53" s="74"/>
     </row>
@@ -12647,7 +12655,7 @@
         <v>247</v>
       </c>
       <c r="R54" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S54" s="74"/>
     </row>
@@ -12667,7 +12675,7 @@
         <v>253</v>
       </c>
       <c r="R55" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S55" s="74"/>
     </row>
@@ -12727,7 +12735,7 @@
         <v>318</v>
       </c>
       <c r="R58" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S58" s="74"/>
     </row>
@@ -12847,7 +12855,7 @@
         <v>318</v>
       </c>
       <c r="R64" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S64" s="74"/>
     </row>
@@ -12952,8 +12960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S68"/>
   <sheetViews>
-    <sheetView topLeftCell="K36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P47" sqref="P47"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13198,7 +13206,9 @@
       </c>
       <c r="E9" s="73"/>
       <c r="F9" s="28"/>
-      <c r="G9" s="141"/>
+      <c r="G9" s="141" t="s">
+        <v>22</v>
+      </c>
       <c r="H9" s="114"/>
       <c r="I9" s="170">
         <v>29</v>
@@ -13515,7 +13525,7 @@
         <v>114</v>
       </c>
       <c r="Q16" s="56" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="R16" s="56" t="s">
         <v>81</v>
@@ -13964,7 +13974,7 @@
         <v>114</v>
       </c>
       <c r="Q27" s="56" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="R27" s="56" t="s">
         <v>81</v>
@@ -14313,7 +14323,7 @@
         <v>114</v>
       </c>
       <c r="Q38" s="56" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="R38" s="56" t="s">
         <v>81</v>
@@ -14526,7 +14536,7 @@
         <v>249</v>
       </c>
       <c r="R48" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S48" s="57"/>
     </row>
@@ -14568,7 +14578,7 @@
         <v>253</v>
       </c>
       <c r="R50" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S50" s="74"/>
     </row>
@@ -14588,7 +14598,7 @@
         <v>255</v>
       </c>
       <c r="R51" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S51" s="74"/>
     </row>
@@ -14608,7 +14618,7 @@
         <v>86</v>
       </c>
       <c r="R52" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S52" s="74"/>
     </row>
@@ -14628,7 +14638,7 @@
         <v>253</v>
       </c>
       <c r="R53" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S53" s="74"/>
     </row>
@@ -14648,7 +14658,7 @@
         <v>247</v>
       </c>
       <c r="R54" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S54" s="74"/>
     </row>
@@ -14668,7 +14678,7 @@
         <v>253</v>
       </c>
       <c r="R55" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S55" s="74"/>
     </row>
@@ -14728,7 +14738,7 @@
         <v>318</v>
       </c>
       <c r="R58" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S58" s="74"/>
     </row>
@@ -14848,7 +14858,7 @@
         <v>318</v>
       </c>
       <c r="R64" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S64" s="74"/>
     </row>
@@ -14953,8 +14963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S68"/>
   <sheetViews>
-    <sheetView topLeftCell="H31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23:K23"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15189,7 +15199,9 @@
       </c>
       <c r="E10" s="71"/>
       <c r="F10" s="84"/>
-      <c r="G10" s="90"/>
+      <c r="G10" s="90" t="s">
+        <v>22</v>
+      </c>
       <c r="H10" s="114"/>
       <c r="I10" s="171">
         <v>13</v>
@@ -15470,7 +15482,7 @@
         <v>114</v>
       </c>
       <c r="Q16" s="56" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="R16" s="56" t="s">
         <v>81</v>
@@ -15802,7 +15814,7 @@
         <v>114</v>
       </c>
       <c r="Q27" s="56" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="R27" s="56" t="s">
         <v>81</v>
@@ -16320,8 +16332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S36"/>
   <sheetViews>
-    <sheetView topLeftCell="K15" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16567,7 +16579,9 @@
       </c>
       <c r="E9" s="73"/>
       <c r="F9" s="82"/>
-      <c r="G9" s="89"/>
+      <c r="G9" s="89" t="s">
+        <v>22</v>
+      </c>
       <c r="H9" s="144"/>
       <c r="I9" s="233">
         <v>15</v>
@@ -16886,7 +16900,7 @@
         <v>114</v>
       </c>
       <c r="Q16" s="56" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="R16" s="56" t="s">
         <v>81</v>
@@ -17223,7 +17237,7 @@
         <v>249</v>
       </c>
       <c r="R26" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S26" s="57"/>
     </row>
@@ -17271,7 +17285,7 @@
         <v>253</v>
       </c>
       <c r="R28" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S28" s="74"/>
     </row>
@@ -17295,7 +17309,7 @@
         <v>255</v>
       </c>
       <c r="R29" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S29" s="74"/>
     </row>
@@ -17316,7 +17330,7 @@
         <v>86</v>
       </c>
       <c r="R30" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S30" s="74"/>
     </row>
@@ -17337,7 +17351,7 @@
         <v>253</v>
       </c>
       <c r="R31" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S31" s="74"/>
     </row>
@@ -17358,7 +17372,7 @@
         <v>247</v>
       </c>
       <c r="R32" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S32" s="74"/>
     </row>
@@ -17379,7 +17393,7 @@
         <v>253</v>
       </c>
       <c r="R33" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S33" s="74"/>
     </row>
@@ -17431,8 +17445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S34"/>
   <sheetViews>
-    <sheetView topLeftCell="L15" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17677,7 +17691,9 @@
       </c>
       <c r="E9" s="73"/>
       <c r="F9" s="82"/>
-      <c r="G9" s="83"/>
+      <c r="G9" s="83" t="s">
+        <v>22</v>
+      </c>
       <c r="H9" s="144"/>
       <c r="I9" s="97">
         <v>13</v>
@@ -17996,7 +18012,7 @@
         <v>114</v>
       </c>
       <c r="Q16" s="56" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="R16" s="56" t="s">
         <v>81</v>
@@ -18309,7 +18325,7 @@
         <v>249</v>
       </c>
       <c r="R26" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S26" s="57"/>
     </row>
@@ -18354,7 +18370,7 @@
         <v>253</v>
       </c>
       <c r="R28" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S28" s="74"/>
     </row>
@@ -18375,7 +18391,7 @@
         <v>255</v>
       </c>
       <c r="R29" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S29" s="74"/>
     </row>
@@ -18396,7 +18412,7 @@
         <v>86</v>
       </c>
       <c r="R30" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S30" s="74"/>
     </row>
@@ -18417,7 +18433,7 @@
         <v>253</v>
       </c>
       <c r="R31" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S31" s="74"/>
     </row>
@@ -18438,7 +18454,7 @@
         <v>247</v>
       </c>
       <c r="R32" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S32" s="74"/>
     </row>
@@ -18459,7 +18475,7 @@
         <v>253</v>
       </c>
       <c r="R33" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S33" s="74"/>
     </row>
@@ -18505,14 +18521,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S39"/>
   <sheetViews>
-    <sheetView topLeftCell="L10" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
@@ -18756,7 +18772,9 @@
       </c>
       <c r="E9" s="73"/>
       <c r="F9" s="82"/>
-      <c r="G9" s="83"/>
+      <c r="G9" s="83" t="s">
+        <v>22</v>
+      </c>
       <c r="H9" s="145"/>
       <c r="I9" s="233">
         <v>18</v>
@@ -19075,7 +19093,7 @@
         <v>114</v>
       </c>
       <c r="Q16" s="56" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="R16" s="56" t="s">
         <v>81</v>
@@ -19450,7 +19468,7 @@
         <v>249</v>
       </c>
       <c r="R26" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S26" s="74"/>
     </row>
@@ -19495,7 +19513,7 @@
         <v>253</v>
       </c>
       <c r="R28" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S28" s="74"/>
     </row>
@@ -19516,7 +19534,7 @@
         <v>255</v>
       </c>
       <c r="R29" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S29" s="74"/>
     </row>
@@ -19537,7 +19555,7 @@
         <v>86</v>
       </c>
       <c r="R30" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S30" s="74"/>
     </row>
@@ -19558,7 +19576,7 @@
         <v>253</v>
       </c>
       <c r="R31" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S31" s="74"/>
     </row>
@@ -19579,7 +19597,7 @@
         <v>247</v>
       </c>
       <c r="R32" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S32" s="74"/>
     </row>
@@ -19600,7 +19618,7 @@
         <v>253</v>
       </c>
       <c r="R33" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S33" s="74"/>
     </row>
@@ -19661,8 +19679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S37"/>
   <sheetViews>
-    <sheetView topLeftCell="I13" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19949,7 +19967,9 @@
       </c>
       <c r="E10" s="72"/>
       <c r="F10" s="84"/>
-      <c r="G10" s="90"/>
+      <c r="G10" s="90" t="s">
+        <v>22</v>
+      </c>
       <c r="H10" s="144"/>
       <c r="I10" s="55">
         <v>17</v>
@@ -20228,7 +20248,7 @@
         <v>114</v>
       </c>
       <c r="Q16" s="56" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="R16" s="56" t="s">
         <v>81</v>
@@ -20583,7 +20603,7 @@
         <v>249</v>
       </c>
       <c r="R26" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S26" s="74"/>
     </row>
@@ -20631,7 +20651,7 @@
         <v>253</v>
       </c>
       <c r="R28" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S28" s="74"/>
     </row>
@@ -20652,7 +20672,7 @@
         <v>255</v>
       </c>
       <c r="R29" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S29" s="74"/>
     </row>
@@ -20673,7 +20693,7 @@
         <v>86</v>
       </c>
       <c r="R30" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S30" s="74"/>
     </row>
@@ -20694,7 +20714,7 @@
         <v>253</v>
       </c>
       <c r="R31" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S31" s="74"/>
     </row>
@@ -20715,7 +20735,7 @@
         <v>247</v>
       </c>
       <c r="R32" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S32" s="74"/>
     </row>
@@ -20736,7 +20756,7 @@
         <v>253</v>
       </c>
       <c r="R33" s="56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S33" s="74"/>
     </row>

--- a/Otorgamiento/Mapeos_UBI_Otorgamiento_V1.xlsx
+++ b/Otorgamiento/Mapeos_UBI_Otorgamiento_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="20115" windowHeight="7815" firstSheet="7" activeTab="7"/>
+    <workbookView xWindow="195" yWindow="-15" windowWidth="20115" windowHeight="4200" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DB_COMPL_PERSONA_NATURAL" sheetId="1" r:id="rId1"/>
@@ -4596,8 +4596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4827,7 +4827,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="163">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="66" t="s">
@@ -4915,7 +4915,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="164">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="67"/>
@@ -9037,8 +9037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S64"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10990,7 +10990,7 @@
   <dimension ref="B1:S68"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11321,7 +11321,9 @@
       <c r="D11" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="71"/>
+      <c r="E11" s="71">
+        <v>18</v>
+      </c>
       <c r="F11" s="33"/>
       <c r="G11" s="67"/>
       <c r="H11" s="116"/>
@@ -11363,7 +11365,9 @@
       <c r="D12" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="71"/>
+      <c r="E12" s="71">
+        <v>18</v>
+      </c>
       <c r="F12" s="33"/>
       <c r="G12" s="67"/>
       <c r="H12" s="116"/>
@@ -11491,7 +11495,9 @@
       <c r="D15" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="71"/>
+      <c r="E15" s="71">
+        <v>18</v>
+      </c>
       <c r="F15" s="33"/>
       <c r="G15" s="67"/>
       <c r="H15" s="116"/>
@@ -11577,7 +11583,9 @@
       <c r="D17" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="71"/>
+      <c r="E17" s="71">
+        <v>18</v>
+      </c>
       <c r="F17" s="33"/>
       <c r="G17" s="67"/>
       <c r="H17" s="116"/>
@@ -11619,7 +11627,9 @@
       <c r="D18" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="E18" s="71"/>
+      <c r="E18" s="71">
+        <v>18</v>
+      </c>
       <c r="F18" s="33"/>
       <c r="G18" s="67"/>
       <c r="H18" s="116"/>
@@ -11661,7 +11671,9 @@
       <c r="D19" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="E19" s="71"/>
+      <c r="E19" s="71">
+        <v>18</v>
+      </c>
       <c r="F19" s="33"/>
       <c r="G19" s="67"/>
       <c r="H19" s="116"/>
@@ -11833,7 +11845,9 @@
       <c r="D23" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="E23" s="71"/>
+      <c r="E23" s="71">
+        <v>18</v>
+      </c>
       <c r="F23" s="33"/>
       <c r="G23" s="67"/>
       <c r="H23" s="116"/>
@@ -11917,7 +11931,9 @@
       <c r="D25" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="E25" s="71"/>
+      <c r="E25" s="71">
+        <v>18</v>
+      </c>
       <c r="F25" s="40"/>
       <c r="G25" s="41"/>
       <c r="H25" s="59"/>
@@ -11953,7 +11969,9 @@
       <c r="D26" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="E26" s="71"/>
+      <c r="E26" s="71">
+        <v>18</v>
+      </c>
       <c r="F26" s="40"/>
       <c r="G26" s="41"/>
       <c r="H26" s="59"/>
@@ -11989,7 +12007,9 @@
       <c r="D27" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="E27" s="71"/>
+      <c r="E27" s="71">
+        <v>18</v>
+      </c>
       <c r="F27" s="40"/>
       <c r="G27" s="41"/>
       <c r="H27" s="59"/>
@@ -12061,7 +12081,9 @@
       <c r="D29" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="71"/>
+      <c r="E29" s="71">
+        <v>18</v>
+      </c>
       <c r="F29" s="40"/>
       <c r="G29" s="41"/>
       <c r="H29" s="59"/>
@@ -12960,8 +12982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S68"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13204,7 +13226,9 @@
       <c r="D9" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="73"/>
+      <c r="E9" s="73">
+        <v>18</v>
+      </c>
       <c r="F9" s="28"/>
       <c r="G9" s="141" t="s">
         <v>22</v>
@@ -13290,7 +13314,9 @@
       <c r="D11" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="71"/>
+      <c r="E11" s="71">
+        <v>18</v>
+      </c>
       <c r="F11" s="33"/>
       <c r="G11" s="100"/>
       <c r="H11" s="114"/>
@@ -13958,7 +13984,9 @@
       <c r="D27" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="71"/>
+      <c r="E27" s="71">
+        <v>18</v>
+      </c>
       <c r="F27" s="40"/>
       <c r="G27" s="129"/>
       <c r="H27" s="29"/>
@@ -14131,7 +14159,9 @@
       <c r="D32" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="71"/>
+      <c r="E32" s="71">
+        <v>18</v>
+      </c>
       <c r="F32" s="72"/>
       <c r="G32" s="102"/>
       <c r="H32" s="29"/>
@@ -14164,7 +14194,9 @@
       <c r="D33" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="71"/>
+      <c r="E33" s="71">
+        <v>18</v>
+      </c>
       <c r="F33" s="72"/>
       <c r="G33" s="102"/>
       <c r="H33" s="29"/>
@@ -14963,8 +14995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S68"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15197,7 +15229,9 @@
       <c r="D10" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="71"/>
+      <c r="E10" s="71">
+        <v>18</v>
+      </c>
       <c r="F10" s="84"/>
       <c r="G10" s="90" t="s">
         <v>22</v>
@@ -18521,14 +18555,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
